--- a/Gantt_Chart Big Gainz.xlsx
+++ b/Gantt_Chart Big Gainz.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD183C6-25B5-CC4E-833C-5574020EFEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6957BE73-9615-BB43-AC08-E299E6334044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1535,7 +1535,7 @@
   </sheetPr>
   <dimension ref="A1:BL28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="92" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
